--- a/Data/Real Life Test/Percobaan.xlsx
+++ b/Data/Real Life Test/Percobaan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Badan</t>
   </si>
@@ -82,12 +82,6 @@
   </si>
   <si>
     <t>Wadah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samping </t>
-  </si>
-  <si>
-    <t>topeng</t>
   </si>
   <si>
     <t>Total Benar</t>
@@ -797,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25:X26"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7">
         <v>0</v>
@@ -891,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="7">
         <v>0</v>
@@ -1824,7 +1818,9 @@
       <c r="O16" s="12">
         <v>0</v>
       </c>
-      <c r="P16" s="11"/>
+      <c r="P16" s="11">
+        <v>5</v>
+      </c>
       <c r="Q16" s="12">
         <v>0</v>
       </c>
@@ -1841,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
@@ -1905,11 +1901,8 @@
       <c r="U17" s="13">
         <v>0</v>
       </c>
-      <c r="X17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
@@ -1961,7 +1954,9 @@
       <c r="Q18" s="12">
         <v>0</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="11">
+        <v>5</v>
+      </c>
       <c r="S18" s="12">
         <v>0</v>
       </c>
@@ -1972,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
@@ -2036,11 +2031,8 @@
       <c r="U19" s="13">
         <v>0</v>
       </c>
-      <c r="X19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
@@ -2105,7 +2097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>20</v>
       </c>
@@ -2161,43 +2153,43 @@
         <v>0</v>
       </c>
       <c r="S21" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T21" s="16">
         <v>0</v>
       </c>
       <c r="U21" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D24">
         <f>SUM(B2,C3,D4,E5,F6,G7,H8,I9,J10,K11,L12,M13,N14,O15,P16,Q17,R18,S19,T20,U21)</f>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25">
         <f>SUM(B2:U21)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <f>D24/D25*100</f>
-        <v>85.555555555555557</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
